--- a/Assignment_2/Stakeholder_Table.xlsx
+++ b/Assignment_2/Stakeholder_Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\madma\Documents\GitRepos\GIT_542_User_Experience\Assignment_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9377737D-B72D-456C-89B4-DE6D8F96BEFE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F81D70A0-5CDE-4F64-BDEB-CB6AB1BB475F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="22296" windowHeight="13176" xr2:uid="{C14F45C6-DC70-4B77-B8FA-4533C678424D}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
   <si>
     <t>Url:</t>
   </si>
@@ -166,13 +166,19 @@
   </si>
   <si>
     <t>Heppy about the improvement and just want the site to relay in the information in a proffessional manner.</t>
+  </si>
+  <si>
+    <t>Douglas Swanson</t>
+  </si>
+  <si>
+    <t>Name:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,6 +194,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -197,7 +209,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -460,6 +472,19 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -473,7 +498,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -517,12 +542,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -535,6 +554,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -856,7 +886,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -870,16 +900,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="16"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="19"/>
     </row>
     <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
@@ -902,7 +936,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="79.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="16" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -923,7 +957,7 @@
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="17" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
@@ -944,7 +978,7 @@
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="17" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
@@ -965,7 +999,7 @@
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" ht="72" x14ac:dyDescent="0.3">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="17" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
@@ -986,7 +1020,7 @@
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="17" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
@@ -1007,7 +1041,7 @@
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" ht="87" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="18" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="10" t="s">
@@ -1029,7 +1063,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B1:C1"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" xr:uid="{88A890FE-73FB-4A9E-AF58-B7EF09F7AA89}"/>
